--- a/planning_data/leuk_planning.xlsx
+++ b/planning_data/leuk_planning.xlsx
@@ -7,16 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DoppelgangerPairs" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ExtraPairs_Bal-Unbal" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DoppelgangerSamplesA" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="DoppelgangerSamplesG" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Balanced Doppel" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Unbalanced Doppel" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Bal-Unbal Doppel" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Unbal-Bal Doppel" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bal_doppel_samples_A" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bal_doppel_samples_G" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Additional doppel samples" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t xml:space="preserve">Patient_ID</t>
   </si>
@@ -399,32 +402,22 @@
     <t xml:space="preserve">AML_25_G</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClassPatient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoppelgangerLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same Class
- Different Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doppelganger</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DoppelPartner</t>
   </si>
   <si>
     <t xml:space="preserve">Doppelganger Samples</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Doppelganger Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal.unbal_doppel_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unbal.bal_doppel_samples</t>
   </si>
 </sst>
 </file>
@@ -2109,609 +2102,163 @@
         <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9422022681958</v>
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.924248171746649</v>
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.936801034236214</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.925866457758689</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" t="s">
-        <v>133</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.924710986785796</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.934128055052647</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.927950877624431</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" t="s">
-        <v>133</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.92771362333831</v>
-      </c>
-      <c r="D9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" t="s">
-        <v>133</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.928157332239239</v>
-      </c>
-      <c r="D10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" t="s">
-        <v>133</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.943329547453442</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>133</v>
-      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.926966136646016</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.930062821981379</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.931717010964428</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.927545601327448</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.946353264053303</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.929589232418624</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.926606068193473</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.926560354989545</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.928208734442532</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.969101648865052</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.933443871363231</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.960624567226999</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.950821063356523</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.945013972147628</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.931826480471008</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.940176400947724</v>
-      </c>
-      <c r="D27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.932137374738803</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.931908284813456</v>
-      </c>
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.924279080892064</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.957982397571941</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.945644681108292</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.947565093254211</v>
-      </c>
-      <c r="D33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.960350569573704</v>
-      </c>
-      <c r="D34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.951771479254603</v>
-      </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.951871363000485</v>
-      </c>
-      <c r="D36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" t="s">
-        <v>133</v>
-      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2735,133 +2282,107 @@
         <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.924248171746649</v>
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.925866457758689</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.924710986785796</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.927950877624431</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" t="s">
-        <v>133</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.926966136646016</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.926560354989545</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.924279080892064</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" t="s">
-        <v>133</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2879,227 +2400,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27"/>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28"/>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29"/>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30"/>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
+      <c r="C6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3117,355 +2472,762 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
+      <c r="A6"/>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
+      <c r="A7"/>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
+      <c r="A8"/>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
+      <c r="A9"/>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
+      <c r="A10"/>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
+      <c r="A11"/>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
+      <c r="A12"/>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
+      <c r="A13"/>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>107</v>
-      </c>
+      <c r="A14"/>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
+      <c r="A15"/>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
+      <c r="A16"/>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
+      <c r="A17"/>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
+      <c r="A18"/>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
+      <c r="A19"/>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
+      <c r="A20"/>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>115</v>
-      </c>
+      <c r="A21"/>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
+      <c r="A22"/>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>122</v>
-      </c>
+      <c r="A23"/>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56"/>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65" t="s">
         <v>126</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
